--- a/src/test/resources/FHEO-Testdata2.xlsx
+++ b/src/test/resources/FHEO-Testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07927E7-1A88-41E0-A061-F12723048434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185383C-8E50-455B-93C6-19CA636863E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/test/resources/FHEO-Testdata2.xlsx
+++ b/src/test/resources/FHEO-Testdata2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC4BA74-CD00-401A-92AA-420BEE4F948D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D01A89-0BDB-4C34-8E8D-4E833667BA4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>disaltOtherRelationshipDescription</t>
   </si>
   <si>
-    <t>03-04-2021</t>
-  </si>
-  <si>
     <t>morning</t>
   </si>
   <si>
@@ -991,6 +988,9 @@
   </si>
   <si>
     <t>Updik181</t>
+  </si>
+  <si>
+    <t>05-12-2021</t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1939,10 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD92"/>
+      <selection pane="bottomRight" activeCell="T81" sqref="T81:T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2097,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2128,7 +2128,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -2140,16 +2140,16 @@
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -2157,14 +2157,14 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="19"/>
       <c r="AC2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE2" s="13">
         <v>80011</v>
@@ -2199,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -2207,7 +2207,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -2219,16 +2219,16 @@
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="X3" s="13">
         <v>2224568749</v>
@@ -2236,14 +2236,14 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE3" s="13">
         <v>80011</v>
@@ -2278,10 +2278,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>10</v>
@@ -2290,10 +2290,10 @@
         <v>8009098909</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>23</v>
@@ -2311,16 +2311,16 @@
         <v>20006</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="X4" s="13">
         <v>2224568749</v>
@@ -2329,7 +2329,7 @@
         <v>43</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>44</v>
@@ -2338,7 +2338,7 @@
         <v>45</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="13" t="s">
         <v>22</v>
@@ -2353,13 +2353,13 @@
         <v>46</v>
       </c>
       <c r="AH4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ4" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK4" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>10</v>
@@ -2397,10 +2397,10 @@
         <v>8009098909</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>23</v>
@@ -2418,16 +2418,16 @@
         <v>20006</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="X5" s="13">
         <v>2224568749</v>
@@ -2436,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>44</v>
@@ -2445,7 +2445,7 @@
         <v>45</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="13" t="s">
         <v>22</v>
@@ -2460,13 +2460,13 @@
         <v>46</v>
       </c>
       <c r="AH5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ5" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2492,10 +2492,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>10</v>
@@ -2504,10 +2504,10 @@
         <v>8009098909</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>23</v>
@@ -2525,16 +2525,16 @@
         <v>20006</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="X6" s="13">
         <v>2224568749</v>
@@ -2543,7 +2543,7 @@
         <v>43</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>44</v>
@@ -2552,7 +2552,7 @@
         <v>45</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD6" s="13" t="s">
         <v>22</v>
@@ -2567,13 +2567,13 @@
         <v>46</v>
       </c>
       <c r="AH6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2599,10 +2599,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -2611,10 +2611,10 @@
         <v>8009098909</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>23</v>
@@ -2632,16 +2632,16 @@
         <v>20006</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="X7" s="13">
         <v>2224568749</v>
@@ -2650,7 +2650,7 @@
         <v>43</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>44</v>
@@ -2659,7 +2659,7 @@
         <v>45</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>22</v>
@@ -2674,13 +2674,13 @@
         <v>46</v>
       </c>
       <c r="AH7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ7" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2706,10 +2706,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>10</v>
@@ -2718,10 +2718,10 @@
         <v>8009098909</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>23</v>
@@ -2739,16 +2739,16 @@
         <v>20006</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="X8" s="13">
         <v>2224568749</v>
@@ -2757,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>44</v>
@@ -2766,7 +2766,7 @@
         <v>45</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>22</v>
@@ -2781,13 +2781,13 @@
         <v>46</v>
       </c>
       <c r="AH8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ8" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2813,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>10</v>
@@ -2825,10 +2825,10 @@
         <v>8009098909</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>23</v>
@@ -2846,16 +2846,16 @@
         <v>20006</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="X9" s="13">
         <v>2224568749</v>
@@ -2864,7 +2864,7 @@
         <v>43</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>44</v>
@@ -2873,7 +2873,7 @@
         <v>45</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>22</v>
@@ -2888,13 +2888,13 @@
         <v>46</v>
       </c>
       <c r="AH9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ9" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2920,13 +2920,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>10</v>
@@ -2935,10 +2935,10 @@
         <v>8009098909</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>23</v>
@@ -2956,16 +2956,16 @@
         <v>20006</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="X10" s="13">
         <v>2224568749</v>
@@ -2974,16 +2974,16 @@
         <v>43</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>22</v>
@@ -2998,13 +2998,13 @@
         <v>46</v>
       </c>
       <c r="AH10" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ10" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>10</v>
@@ -3040,10 +3040,10 @@
         <v>8009098909</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>23</v>
@@ -3061,16 +3061,16 @@
         <v>20006</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="X11" s="13">
         <v>2224568749</v>
@@ -3079,7 +3079,7 @@
         <v>43</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>44</v>
@@ -3088,7 +3088,7 @@
         <v>45</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>22</v>
@@ -3103,13 +3103,13 @@
         <v>46</v>
       </c>
       <c r="AH11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ11" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK11" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3135,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="8" t="s">
@@ -3145,10 +3145,10 @@
         <v>8009098909</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>23</v>
@@ -3166,16 +3166,16 @@
         <v>20006</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="X12" s="13">
         <v>2224568749</v>
@@ -3184,7 +3184,7 @@
         <v>43</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>44</v>
@@ -3193,7 +3193,7 @@
         <v>45</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>22</v>
@@ -3208,13 +3208,13 @@
         <v>46</v>
       </c>
       <c r="AH12" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ12" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3240,20 +3240,20 @@
         <v>7</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="8">
         <v>8009098909</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>23</v>
@@ -3271,16 +3271,16 @@
         <v>20006</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="X13" s="13">
         <v>2224568749</v>
@@ -3289,7 +3289,7 @@
         <v>43</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>44</v>
@@ -3298,7 +3298,7 @@
         <v>45</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD13" s="13" t="s">
         <v>22</v>
@@ -3313,13 +3313,13 @@
         <v>46</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ13" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3345,20 +3345,20 @@
         <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>23</v>
@@ -3376,16 +3376,16 @@
         <v>20006</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="X14" s="13">
         <v>2224568749</v>
@@ -3394,7 +3394,7 @@
         <v>43</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>44</v>
@@ -3403,7 +3403,7 @@
         <v>45</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD14" s="13" t="s">
         <v>22</v>
@@ -3418,13 +3418,13 @@
         <v>46</v>
       </c>
       <c r="AH14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ14" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3450,10 +3450,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>10</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>23</v>
@@ -3481,16 +3481,16 @@
         <v>20006</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="X15" s="13">
         <v>2224568749</v>
@@ -3499,7 +3499,7 @@
         <v>43</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>44</v>
@@ -3508,7 +3508,7 @@
         <v>45</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD15" s="13" t="s">
         <v>22</v>
@@ -3523,13 +3523,13 @@
         <v>46</v>
       </c>
       <c r="AH15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ15" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3555,10 +3555,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>10</v>
@@ -3567,35 +3567,35 @@
         <v>8009098909</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O16" s="19"/>
       <c r="P16" s="8">
         <v>1245</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S16" s="8">
         <v>20006</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="X16" s="13">
         <v>2224568749</v>
@@ -3604,7 +3604,7 @@
         <v>43</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>44</v>
@@ -3613,7 +3613,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD16" s="13" t="s">
         <v>22</v>
@@ -3628,13 +3628,13 @@
         <v>46</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ16" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3660,10 +3660,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>10</v>
@@ -3672,35 +3672,35 @@
         <v>8009098909</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S17" s="8">
         <v>20006</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="X17" s="13">
         <v>2224568749</v>
@@ -3709,19 +3709,19 @@
         <v>43</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB17" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD17" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD17" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE17" s="13">
         <v>80011</v>
@@ -3733,13 +3733,13 @@
         <v>46</v>
       </c>
       <c r="AH17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ17" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3765,10 +3765,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>10</v>
@@ -3777,35 +3777,35 @@
         <v>8009098909</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P18" s="8">
         <v>1245</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S18" s="19"/>
       <c r="T18" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="W18" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="X18" s="13">
         <v>2224568749</v>
@@ -3814,19 +3814,19 @@
         <v>43</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD18" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD18" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE18" s="13">
         <v>80011</v>
@@ -3838,13 +3838,13 @@
         <v>46</v>
       </c>
       <c r="AH18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ18" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3870,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>10</v>
@@ -3882,56 +3882,56 @@
         <v>8009098909</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P19" s="8">
         <v>1245</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S19" s="8">
         <v>80011</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="X19" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y19" s="22"/>
       <c r="Z19" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD19" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE19" s="13">
         <v>80011</v>
@@ -3943,13 +3943,13 @@
         <v>46</v>
       </c>
       <c r="AH19" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ19" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3975,10 +3975,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>10</v>
@@ -3987,37 +3987,37 @@
         <v>8009098909</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P20" s="8">
         <v>1245</v>
       </c>
       <c r="Q20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S20" s="8">
         <v>80011</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="X20" s="13">
         <v>2224568749</v>
@@ -4027,16 +4027,16 @@
       </c>
       <c r="Z20" s="23"/>
       <c r="AA20" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD20" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE20" s="13">
         <v>80011</v>
@@ -4048,13 +4048,13 @@
         <v>46</v>
       </c>
       <c r="AH20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ20" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4080,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>10</v>
@@ -4092,37 +4092,37 @@
         <v>8009098909</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P21" s="8">
         <v>1245</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S21" s="8">
         <v>80011</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="X21" s="13">
         <v>2224568749</v>
@@ -4131,17 +4131,17 @@
         <v>43</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB21" s="20"/>
       <c r="AC21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD21" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE21" s="13">
         <v>80011</v>
@@ -4153,13 +4153,13 @@
         <v>46</v>
       </c>
       <c r="AH21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ21" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4185,10 +4185,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>10</v>
@@ -4197,37 +4197,37 @@
         <v>8009098909</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P22" s="8">
         <v>1245</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S22" s="8">
         <v>80011</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="X22" s="13">
         <v>2224568749</v>
@@ -4236,19 +4236,19 @@
         <v>43</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD22" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE22" s="13">
         <v>80011</v>
@@ -4258,13 +4258,13 @@
         <v>46</v>
       </c>
       <c r="AH22" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ22" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK22" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4290,10 +4290,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>10</v>
@@ -4302,37 +4302,37 @@
         <v>8009098909</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P23" s="8">
         <v>1245</v>
       </c>
       <c r="Q23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S23" s="8">
         <v>80011</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V23" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="W23" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="X23" s="13">
         <v>2224568749</v>
@@ -4341,19 +4341,19 @@
         <v>43</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD23" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE23" s="13">
         <v>80011</v>
@@ -4363,13 +4363,13 @@
       </c>
       <c r="AG23" s="20"/>
       <c r="AH23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ23" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4395,10 +4395,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>10</v>
@@ -4407,37 +4407,37 @@
         <v>8009098909</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P24" s="8">
         <v>1245</v>
       </c>
       <c r="Q24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S24" s="8">
         <v>80011</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="X24" s="13">
         <v>2224568749</v>
@@ -4446,19 +4446,19 @@
         <v>43</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD24" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD24" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE24" s="13">
         <v>80011</v>
@@ -4474,7 +4474,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK24" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4500,10 +4500,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>10</v>
@@ -4512,37 +4512,37 @@
         <v>8009098909</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P25" s="8">
         <v>1245</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S25" s="8">
         <v>80011</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="X25" s="13">
         <v>2224568749</v>
@@ -4551,19 +4551,19 @@
         <v>43</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD25" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD25" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE25" s="13">
         <v>80011</v>
@@ -4575,14 +4575,14 @@
         <v>46</v>
       </c>
       <c r="AH25" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI25" s="20"/>
       <c r="AJ25" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK25" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4608,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>10</v>
@@ -4620,37 +4620,37 @@
         <v>8009098909</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P26" s="8">
         <v>1245</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S26" s="8">
         <v>80011</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="X26" s="13">
         <v>2224568749</v>
@@ -4659,19 +4659,19 @@
         <v>43</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD26" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE26" s="13">
         <v>80011</v>
@@ -4683,11 +4683,11 @@
         <v>46</v>
       </c>
       <c r="AH26" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ26" s="19"/>
       <c r="AK26" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4713,10 +4713,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>10</v>
@@ -4725,37 +4725,37 @@
         <v>8009098909</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P27" s="8">
         <v>1245</v>
       </c>
       <c r="Q27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S27" s="8">
         <v>80011</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V27" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="X27" s="13">
         <v>2224568749</v>
@@ -4764,19 +4764,19 @@
         <v>43</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE27" s="13">
         <v>80011</v>
@@ -4788,7 +4788,7 @@
         <v>46</v>
       </c>
       <c r="AH27" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ27" s="8">
         <v>8009098908</v>
@@ -4823,7 +4823,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -4835,16 +4835,16 @@
       </c>
       <c r="S28" s="19"/>
       <c r="T28" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="X28" s="13">
         <v>2224568749</v>
@@ -4852,14 +4852,14 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
       <c r="AA28" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB28" s="19"/>
       <c r="AC28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD28" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD28" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE28" s="13">
         <v>80011</v>
@@ -4899,7 +4899,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -4911,16 +4911,16 @@
       </c>
       <c r="S29" s="19"/>
       <c r="T29" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="X29" s="13">
         <v>2224568749</v>
@@ -4928,14 +4928,14 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB29" s="19"/>
       <c r="AC29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD29" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD29" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE29" s="13">
         <v>80011</v>
@@ -4970,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>10</v>
@@ -4982,10 +4982,10 @@
         <v>8009098909</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>23</v>
@@ -5003,16 +5003,16 @@
         <v>20006</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V30" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="X30" s="13">
         <v>2224568749</v>
@@ -5021,7 +5021,7 @@
         <v>43</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>44</v>
@@ -5030,7 +5030,7 @@
         <v>45</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD30" s="13" t="s">
         <v>22</v>
@@ -5045,13 +5045,13 @@
         <v>46</v>
       </c>
       <c r="AH30" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ30" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK30" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5077,10 +5077,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>10</v>
@@ -5089,10 +5089,10 @@
         <v>8009098909</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>23</v>
@@ -5110,16 +5110,16 @@
         <v>20006</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V31" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W31" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="X31" s="13">
         <v>2224568749</v>
@@ -5128,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>44</v>
@@ -5137,7 +5137,7 @@
         <v>45</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD31" s="13" t="s">
         <v>22</v>
@@ -5152,13 +5152,13 @@
         <v>46</v>
       </c>
       <c r="AH31" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ31" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK31" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5184,10 +5184,10 @@
         <v>7</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>10</v>
@@ -5196,10 +5196,10 @@
         <v>8009098909</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>23</v>
@@ -5217,16 +5217,16 @@
         <v>20006</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V32" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="X32" s="13">
         <v>2224568749</v>
@@ -5235,7 +5235,7 @@
         <v>43</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>44</v>
@@ -5244,7 +5244,7 @@
         <v>45</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD32" s="13" t="s">
         <v>22</v>
@@ -5259,13 +5259,13 @@
         <v>46</v>
       </c>
       <c r="AH32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ32" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK32" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5291,10 +5291,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>10</v>
@@ -5303,10 +5303,10 @@
         <v>8009098909</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>23</v>
@@ -5324,16 +5324,16 @@
         <v>20006</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V33" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="X33" s="13">
         <v>2224568749</v>
@@ -5342,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>44</v>
@@ -5351,7 +5351,7 @@
         <v>45</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD33" s="13" t="s">
         <v>22</v>
@@ -5366,13 +5366,13 @@
         <v>46</v>
       </c>
       <c r="AH33" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ33" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5398,10 +5398,10 @@
         <v>7</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>10</v>
@@ -5410,10 +5410,10 @@
         <v>8009098909</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>23</v>
@@ -5431,16 +5431,16 @@
         <v>20006</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V34" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="X34" s="13">
         <v>2224568749</v>
@@ -5449,7 +5449,7 @@
         <v>43</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>44</v>
@@ -5458,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>22</v>
@@ -5473,13 +5473,13 @@
         <v>46</v>
       </c>
       <c r="AH34" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ34" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5505,10 +5505,10 @@
         <v>7</v>
       </c>
       <c r="I35" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>10</v>
@@ -5517,10 +5517,10 @@
         <v>8009098909</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>23</v>
@@ -5538,16 +5538,16 @@
         <v>20006</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V35" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="X35" s="13">
         <v>2224568749</v>
@@ -5556,7 +5556,7 @@
         <v>43</v>
       </c>
       <c r="Z35" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>44</v>
@@ -5565,7 +5565,7 @@
         <v>45</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD35" s="13" t="s">
         <v>22</v>
@@ -5580,13 +5580,13 @@
         <v>46</v>
       </c>
       <c r="AH35" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ35" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK35" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5612,13 +5612,13 @@
         <v>6</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>10</v>
@@ -5627,10 +5627,10 @@
         <v>8009098909</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>23</v>
@@ -5648,16 +5648,16 @@
         <v>20006</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="X36" s="13">
         <v>2224568749</v>
@@ -5666,7 +5666,7 @@
         <v>43</v>
       </c>
       <c r="Z36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>44</v>
@@ -5675,7 +5675,7 @@
         <v>45</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>22</v>
@@ -5690,13 +5690,13 @@
         <v>46</v>
       </c>
       <c r="AH36" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ36" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK36" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5727,7 +5727,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
@@ -5739,16 +5739,16 @@
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V37" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="X37" s="13">
         <v>2224568749</v>
@@ -5756,14 +5756,14 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
       <c r="AA37" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB37" s="19"/>
       <c r="AC37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD37" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD37" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE37" s="13">
         <v>80011</v>
@@ -5803,7 +5803,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
@@ -5815,16 +5815,16 @@
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="X38" s="13">
         <v>2224568749</v>
@@ -5832,14 +5832,14 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB38" s="19"/>
       <c r="AC38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD38" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD38" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE38" s="13">
         <v>80011</v>
@@ -5879,7 +5879,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -5891,16 +5891,16 @@
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="X39" s="13">
         <v>2224568749</v>
@@ -5908,14 +5908,14 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD39" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD39" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE39" s="13">
         <v>80011</v>
@@ -5955,7 +5955,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -5967,16 +5967,16 @@
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V40" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="X40" s="13">
         <v>2224568749</v>
@@ -5984,14 +5984,14 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB40" s="19"/>
       <c r="AC40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD40" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE40" s="13">
         <v>80011</v>
@@ -6031,7 +6031,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -6043,16 +6043,16 @@
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="X41" s="13">
         <v>2224568749</v>
@@ -6060,14 +6060,14 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
       <c r="AA41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB41" s="19"/>
       <c r="AC41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD41" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD41" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE41" s="13">
         <v>80011</v>
@@ -6102,7 +6102,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
@@ -6110,7 +6110,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -6122,16 +6122,16 @@
       </c>
       <c r="S42" s="19"/>
       <c r="T42" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="X42" s="13">
         <v>2224568749</v>
@@ -6139,14 +6139,14 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD42" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE42" s="13">
         <v>80011</v>
@@ -6186,7 +6186,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -6198,16 +6198,16 @@
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="X43" s="13">
         <v>2224568749</v>
@@ -6215,14 +6215,14 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB43" s="19"/>
       <c r="AC43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD43" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE43" s="13">
         <v>80011</v>
@@ -6262,7 +6262,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -6274,16 +6274,16 @@
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="X44" s="13">
         <v>2224568749</v>
@@ -6291,14 +6291,14 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB44" s="19"/>
       <c r="AC44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD44" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE44" s="13">
         <v>80011</v>
@@ -6338,7 +6338,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -6350,16 +6350,16 @@
       </c>
       <c r="S45" s="19"/>
       <c r="T45" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="X45" s="13">
         <v>2224568749</v>
@@ -6367,14 +6367,14 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB45" s="19"/>
       <c r="AC45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD45" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD45" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE45" s="13">
         <v>80011</v>
@@ -6414,7 +6414,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -6426,16 +6426,16 @@
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="X46" s="13">
         <v>2224568749</v>
@@ -6443,14 +6443,14 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
       <c r="AA46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB46" s="19"/>
       <c r="AC46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD46" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE46" s="13">
         <v>80011</v>
@@ -6490,7 +6490,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -6502,16 +6502,16 @@
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="X47" s="13">
         <v>2224568749</v>
@@ -6519,14 +6519,14 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
       <c r="AA47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD47" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD47" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE47" s="13">
         <v>80011</v>
@@ -6566,7 +6566,7 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
@@ -6578,16 +6578,16 @@
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="X48" s="13">
         <v>2224568749</v>
@@ -6595,14 +6595,14 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="19"/>
       <c r="AC48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD48" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD48" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE48" s="13">
         <v>80011</v>
@@ -6637,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -6645,7 +6645,7 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
@@ -6657,16 +6657,16 @@
       </c>
       <c r="S49" s="19"/>
       <c r="T49" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="X49" s="13">
         <v>2224568749</v>
@@ -6674,14 +6674,14 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB49" s="19"/>
       <c r="AC49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD49" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD49" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE49" s="13">
         <v>80011</v>
@@ -6716,10 +6716,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>10</v>
@@ -6728,10 +6728,10 @@
         <v>8009098909</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>23</v>
@@ -6749,16 +6749,16 @@
         <v>20006</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="W50" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="X50" s="13">
         <v>2224568749</v>
@@ -6767,7 +6767,7 @@
         <v>43</v>
       </c>
       <c r="Z50" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA50" s="5" t="s">
         <v>44</v>
@@ -6776,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="AC50" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD50" s="13" t="s">
         <v>22</v>
@@ -6791,13 +6791,13 @@
         <v>46</v>
       </c>
       <c r="AH50" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ50" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK50" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -6823,10 +6823,10 @@
         <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>10</v>
@@ -6835,10 +6835,10 @@
         <v>8009098909</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>23</v>
@@ -6856,16 +6856,16 @@
         <v>20006</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="W51" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="X51" s="13">
         <v>2224568749</v>
@@ -6874,7 +6874,7 @@
         <v>43</v>
       </c>
       <c r="Z51" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA51" s="5" t="s">
         <v>44</v>
@@ -6883,7 +6883,7 @@
         <v>45</v>
       </c>
       <c r="AC51" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD51" s="13" t="s">
         <v>22</v>
@@ -6898,13 +6898,13 @@
         <v>46</v>
       </c>
       <c r="AH51" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ51" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK51" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -6930,10 +6930,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>10</v>
@@ -6942,10 +6942,10 @@
         <v>8009098909</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>23</v>
@@ -6963,16 +6963,16 @@
         <v>20006</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="W52" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="X52" s="13">
         <v>2224568749</v>
@@ -6981,7 +6981,7 @@
         <v>43</v>
       </c>
       <c r="Z52" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA52" s="5" t="s">
         <v>44</v>
@@ -6990,7 +6990,7 @@
         <v>45</v>
       </c>
       <c r="AC52" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD52" s="13" t="s">
         <v>22</v>
@@ -7005,13 +7005,13 @@
         <v>46</v>
       </c>
       <c r="AH52" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ52" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK52" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7037,10 +7037,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>10</v>
@@ -7049,10 +7049,10 @@
         <v>8009098909</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>23</v>
@@ -7070,16 +7070,16 @@
         <v>20006</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>241</v>
       </c>
       <c r="X53" s="13">
         <v>2224568749</v>
@@ -7088,7 +7088,7 @@
         <v>43</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA53" s="5" t="s">
         <v>44</v>
@@ -7097,7 +7097,7 @@
         <v>45</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD53" s="13" t="s">
         <v>22</v>
@@ -7112,13 +7112,13 @@
         <v>46</v>
       </c>
       <c r="AH53" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ53" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK53" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7144,10 +7144,10 @@
         <v>7</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>10</v>
@@ -7156,10 +7156,10 @@
         <v>8009098909</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>23</v>
@@ -7177,16 +7177,16 @@
         <v>20006</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="W54" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="X54" s="13">
         <v>2224568749</v>
@@ -7195,7 +7195,7 @@
         <v>43</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA54" s="5" t="s">
         <v>44</v>
@@ -7204,7 +7204,7 @@
         <v>45</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>22</v>
@@ -7219,13 +7219,13 @@
         <v>46</v>
       </c>
       <c r="AH54" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ54" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK54" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7251,10 +7251,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>10</v>
@@ -7263,10 +7263,10 @@
         <v>8009098909</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>23</v>
@@ -7284,16 +7284,16 @@
         <v>20006</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V55" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="W55" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="X55" s="13">
         <v>2224568749</v>
@@ -7302,7 +7302,7 @@
         <v>43</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA55" s="5" t="s">
         <v>44</v>
@@ -7311,7 +7311,7 @@
         <v>45</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD55" s="13" t="s">
         <v>22</v>
@@ -7326,13 +7326,13 @@
         <v>46</v>
       </c>
       <c r="AH55" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ55" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK55" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7358,13 +7358,13 @@
         <v>6</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>10</v>
@@ -7373,10 +7373,10 @@
         <v>8009098909</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>23</v>
@@ -7394,16 +7394,16 @@
         <v>20006</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V56" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="W56" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="X56" s="13">
         <v>2224568749</v>
@@ -7412,16 +7412,16 @@
         <v>43</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA56" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD56" s="13" t="s">
         <v>22</v>
@@ -7436,13 +7436,13 @@
         <v>46</v>
       </c>
       <c r="AH56" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ56" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK56" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>10</v>
@@ -7478,10 +7478,10 @@
         <v>8009098909</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>23</v>
@@ -7499,16 +7499,16 @@
         <v>20006</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V57" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="W57" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="X57" s="13">
         <v>2224568749</v>
@@ -7517,7 +7517,7 @@
         <v>43</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA57" s="5" t="s">
         <v>44</v>
@@ -7526,7 +7526,7 @@
         <v>45</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD57" s="13" t="s">
         <v>22</v>
@@ -7541,13 +7541,13 @@
         <v>46</v>
       </c>
       <c r="AH57" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ57" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK57" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7573,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J58" s="19"/>
       <c r="K58" s="8" t="s">
@@ -7583,10 +7583,10 @@
         <v>8009098909</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>23</v>
@@ -7604,16 +7604,16 @@
         <v>20006</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V58" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="W58" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="X58" s="13">
         <v>2224568749</v>
@@ -7622,7 +7622,7 @@
         <v>43</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA58" s="5" t="s">
         <v>44</v>
@@ -7631,7 +7631,7 @@
         <v>45</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD58" s="13" t="s">
         <v>22</v>
@@ -7646,13 +7646,13 @@
         <v>46</v>
       </c>
       <c r="AH58" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ58" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK58" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7678,20 +7678,20 @@
         <v>7</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="8">
         <v>8009098909</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>23</v>
@@ -7709,16 +7709,16 @@
         <v>20006</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="W59" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="X59" s="13">
         <v>2224568749</v>
@@ -7727,7 +7727,7 @@
         <v>43</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA59" s="5" t="s">
         <v>44</v>
@@ -7736,7 +7736,7 @@
         <v>45</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD59" s="13" t="s">
         <v>22</v>
@@ -7751,13 +7751,13 @@
         <v>46</v>
       </c>
       <c r="AH59" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ59" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK59" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7783,20 +7783,20 @@
         <v>7</v>
       </c>
       <c r="I60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="19"/>
       <c r="M60" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>23</v>
@@ -7814,16 +7814,16 @@
         <v>20006</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V60" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="W60" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="X60" s="13">
         <v>2224568749</v>
@@ -7832,7 +7832,7 @@
         <v>43</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA60" s="5" t="s">
         <v>44</v>
@@ -7841,7 +7841,7 @@
         <v>45</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD60" s="13" t="s">
         <v>22</v>
@@ -7856,13 +7856,13 @@
         <v>46</v>
       </c>
       <c r="AH60" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ60" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK60" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7888,10 +7888,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>10</v>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="M61" s="21"/>
       <c r="N61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>23</v>
@@ -7919,16 +7919,16 @@
         <v>20006</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V61" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="W61" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="X61" s="13">
         <v>2224568749</v>
@@ -7937,7 +7937,7 @@
         <v>43</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA61" s="5" t="s">
         <v>44</v>
@@ -7946,7 +7946,7 @@
         <v>45</v>
       </c>
       <c r="AC61" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD61" s="13" t="s">
         <v>22</v>
@@ -7961,13 +7961,13 @@
         <v>46</v>
       </c>
       <c r="AH61" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ61" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK61" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7993,10 +7993,10 @@
         <v>7</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>10</v>
@@ -8005,35 +8005,35 @@
         <v>8009098909</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O62" s="19"/>
       <c r="P62" s="8">
         <v>1245</v>
       </c>
       <c r="Q62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S62" s="8">
         <v>20006</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V62" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="X62" s="13">
         <v>2224568749</v>
@@ -8042,7 +8042,7 @@
         <v>43</v>
       </c>
       <c r="Z62" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA62" s="5" t="s">
         <v>44</v>
@@ -8051,7 +8051,7 @@
         <v>45</v>
       </c>
       <c r="AC62" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD62" s="13" t="s">
         <v>22</v>
@@ -8066,13 +8066,13 @@
         <v>46</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ62" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK62" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8098,10 +8098,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>10</v>
@@ -8110,35 +8110,35 @@
         <v>8009098909</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S63" s="8">
         <v>20006</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V63" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="X63" s="13">
         <v>2224568749</v>
@@ -8147,19 +8147,19 @@
         <v>43</v>
       </c>
       <c r="Z63" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA63" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB63" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD63" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD63" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE63" s="13">
         <v>80011</v>
@@ -8171,13 +8171,13 @@
         <v>46</v>
       </c>
       <c r="AH63" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ63" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK63" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8203,10 +8203,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>10</v>
@@ -8215,35 +8215,35 @@
         <v>8009098909</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P64" s="8">
         <v>1245</v>
       </c>
       <c r="Q64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S64" s="19"/>
       <c r="T64" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V64" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="X64" s="13">
         <v>2224568749</v>
@@ -8252,19 +8252,19 @@
         <v>43</v>
       </c>
       <c r="Z64" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB64" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD64" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD64" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE64" s="13">
         <v>80011</v>
@@ -8276,13 +8276,13 @@
         <v>46</v>
       </c>
       <c r="AH64" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ64" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK64" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8308,10 +8308,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>10</v>
@@ -8320,56 +8320,56 @@
         <v>8009098909</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P65" s="8">
         <v>1245</v>
       </c>
       <c r="Q65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S65" s="8">
         <v>80011</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V65" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="X65" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y65" s="22"/>
       <c r="Z65" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB65" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD65" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD65" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE65" s="13">
         <v>80011</v>
@@ -8381,13 +8381,13 @@
         <v>46</v>
       </c>
       <c r="AH65" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ65" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK65" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8413,10 +8413,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>10</v>
@@ -8425,37 +8425,37 @@
         <v>8009098909</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P66" s="8">
         <v>1245</v>
       </c>
       <c r="Q66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S66" s="8">
         <v>80011</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="X66" s="13">
         <v>2224568749</v>
@@ -8465,16 +8465,16 @@
       </c>
       <c r="Z66" s="23"/>
       <c r="AA66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB66" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD66" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE66" s="13">
         <v>80011</v>
@@ -8486,13 +8486,13 @@
         <v>46</v>
       </c>
       <c r="AH66" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ66" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK66" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8518,10 +8518,10 @@
         <v>7</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>10</v>
@@ -8530,37 +8530,37 @@
         <v>8009098909</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P67" s="8">
         <v>1245</v>
       </c>
       <c r="Q67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S67" s="8">
         <v>80011</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V67" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>268</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="X67" s="13">
         <v>2224568749</v>
@@ -8569,17 +8569,17 @@
         <v>43</v>
       </c>
       <c r="Z67" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB67" s="20"/>
       <c r="AC67" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD67" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD67" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE67" s="13">
         <v>80011</v>
@@ -8591,13 +8591,13 @@
         <v>46</v>
       </c>
       <c r="AH67" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ67" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK67" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8623,10 +8623,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>10</v>
@@ -8635,37 +8635,37 @@
         <v>8009098909</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P68" s="8">
         <v>1245</v>
       </c>
       <c r="Q68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S68" s="8">
         <v>80011</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V68" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="X68" s="13">
         <v>2224568749</v>
@@ -8674,19 +8674,19 @@
         <v>43</v>
       </c>
       <c r="Z68" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD68" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD68" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE68" s="13">
         <v>80011</v>
@@ -8696,13 +8696,13 @@
         <v>46</v>
       </c>
       <c r="AH68" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ68" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK68" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8728,10 +8728,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>10</v>
@@ -8740,37 +8740,37 @@
         <v>8009098909</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P69" s="8">
         <v>1245</v>
       </c>
       <c r="Q69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S69" s="8">
         <v>80011</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V69" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="W69" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="X69" s="13">
         <v>2224568749</v>
@@ -8779,19 +8779,19 @@
         <v>43</v>
       </c>
       <c r="Z69" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB69" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD69" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD69" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE69" s="13">
         <v>80011</v>
@@ -8801,13 +8801,13 @@
       </c>
       <c r="AG69" s="20"/>
       <c r="AH69" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ69" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK69" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8833,10 +8833,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>10</v>
@@ -8845,37 +8845,37 @@
         <v>8009098909</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P70" s="8">
         <v>1245</v>
       </c>
       <c r="Q70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S70" s="8">
         <v>80011</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V70" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="W70" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="X70" s="13">
         <v>2224568749</v>
@@ -8884,19 +8884,19 @@
         <v>43</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB70" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD70" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD70" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE70" s="13">
         <v>80011</v>
@@ -8912,7 +8912,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK70" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8938,10 +8938,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>10</v>
@@ -8950,37 +8950,37 @@
         <v>8009098909</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P71" s="8">
         <v>1245</v>
       </c>
       <c r="Q71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S71" s="8">
         <v>80011</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V71" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W71" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="X71" s="13">
         <v>2224568749</v>
@@ -8989,19 +8989,19 @@
         <v>43</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB71" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD71" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE71" s="13">
         <v>80011</v>
@@ -9013,14 +9013,14 @@
         <v>46</v>
       </c>
       <c r="AH71" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK71" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9046,10 +9046,10 @@
         <v>7</v>
       </c>
       <c r="I72" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>10</v>
@@ -9058,37 +9058,37 @@
         <v>8009098909</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P72" s="8">
         <v>1245</v>
       </c>
       <c r="Q72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R72" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S72" s="8">
         <v>80011</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V72" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="W72" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>279</v>
       </c>
       <c r="X72" s="13">
         <v>2224568749</v>
@@ -9097,19 +9097,19 @@
         <v>43</v>
       </c>
       <c r="Z72" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA72" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB72" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD72" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD72" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE72" s="13">
         <v>80011</v>
@@ -9121,11 +9121,11 @@
         <v>46</v>
       </c>
       <c r="AH72" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ72" s="19"/>
       <c r="AK72" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9151,10 +9151,10 @@
         <v>7</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>10</v>
@@ -9163,37 +9163,37 @@
         <v>8009098909</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P73" s="8">
         <v>1245</v>
       </c>
       <c r="Q73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R73" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="S73" s="8">
         <v>80011</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V73" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="W73" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="X73" s="13">
         <v>2224568749</v>
@@ -9202,19 +9202,19 @@
         <v>43</v>
       </c>
       <c r="Z73" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA73" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB73" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD73" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD73" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE73" s="13">
         <v>80011</v>
@@ -9226,7 +9226,7 @@
         <v>46</v>
       </c>
       <c r="AH73" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ73" s="8">
         <v>8009098908</v>
@@ -9261,7 +9261,7 @@
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
       <c r="N74" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O74" s="19"/>
       <c r="P74" s="19"/>
@@ -9273,16 +9273,16 @@
       </c>
       <c r="S74" s="19"/>
       <c r="T74" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V74" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="W74" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="X74" s="13">
         <v>2224568749</v>
@@ -9290,14 +9290,14 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB74" s="19"/>
       <c r="AC74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD74" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD74" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE74" s="13">
         <v>80011</v>
@@ -9337,7 +9337,7 @@
       <c r="L75" s="19"/>
       <c r="M75" s="19"/>
       <c r="N75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O75" s="19"/>
       <c r="P75" s="19"/>
@@ -9349,16 +9349,16 @@
       </c>
       <c r="S75" s="19"/>
       <c r="T75" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V75" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="W75" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="W75" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="X75" s="13">
         <v>2224568749</v>
@@ -9366,14 +9366,14 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
       <c r="AA75" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB75" s="19"/>
       <c r="AC75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD75" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD75" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE75" s="13">
         <v>80011</v>
@@ -9408,10 +9408,10 @@
         <v>7</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>10</v>
@@ -9420,10 +9420,10 @@
         <v>8009098909</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>23</v>
@@ -9441,16 +9441,16 @@
         <v>20006</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V76" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="W76" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="X76" s="13">
         <v>2224568749</v>
@@ -9459,7 +9459,7 @@
         <v>43</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA76" s="5" t="s">
         <v>44</v>
@@ -9468,7 +9468,7 @@
         <v>45</v>
       </c>
       <c r="AC76" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD76" s="13" t="s">
         <v>22</v>
@@ -9483,13 +9483,13 @@
         <v>46</v>
       </c>
       <c r="AH76" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ76" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK76" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9515,10 +9515,10 @@
         <v>7</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>10</v>
@@ -9527,10 +9527,10 @@
         <v>8009098909</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>23</v>
@@ -9548,16 +9548,16 @@
         <v>20006</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V77" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="W77" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="W77" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="X77" s="13">
         <v>2224568749</v>
@@ -9566,7 +9566,7 @@
         <v>43</v>
       </c>
       <c r="Z77" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA77" s="5" t="s">
         <v>44</v>
@@ -9575,7 +9575,7 @@
         <v>45</v>
       </c>
       <c r="AC77" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD77" s="13" t="s">
         <v>22</v>
@@ -9590,13 +9590,13 @@
         <v>46</v>
       </c>
       <c r="AH77" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ77" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK77" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9622,10 +9622,10 @@
         <v>7</v>
       </c>
       <c r="I78" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>10</v>
@@ -9634,10 +9634,10 @@
         <v>8009098909</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>23</v>
@@ -9655,16 +9655,16 @@
         <v>20006</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V78" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="W78" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="W78" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="X78" s="13">
         <v>2224568749</v>
@@ -9673,7 +9673,7 @@
         <v>43</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA78" s="5" t="s">
         <v>44</v>
@@ -9682,7 +9682,7 @@
         <v>45</v>
       </c>
       <c r="AC78" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD78" s="13" t="s">
         <v>22</v>
@@ -9697,13 +9697,13 @@
         <v>46</v>
       </c>
       <c r="AH78" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ78" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK78" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9729,10 +9729,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>10</v>
@@ -9741,10 +9741,10 @@
         <v>8009098909</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>23</v>
@@ -9762,16 +9762,16 @@
         <v>20006</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V79" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="W79" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="X79" s="13">
         <v>2224568749</v>
@@ -9780,7 +9780,7 @@
         <v>43</v>
       </c>
       <c r="Z79" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA79" s="5" t="s">
         <v>44</v>
@@ -9789,7 +9789,7 @@
         <v>45</v>
       </c>
       <c r="AC79" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD79" s="13" t="s">
         <v>22</v>
@@ -9804,13 +9804,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ79" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK79" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9836,10 +9836,10 @@
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>10</v>
@@ -9848,10 +9848,10 @@
         <v>8009098909</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>23</v>
@@ -9869,16 +9869,16 @@
         <v>20006</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V80" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="W80" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="X80" s="13">
         <v>2224568749</v>
@@ -9887,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="Z80" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA80" s="5" t="s">
         <v>44</v>
@@ -9896,7 +9896,7 @@
         <v>45</v>
       </c>
       <c r="AC80" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD80" s="13" t="s">
         <v>22</v>
@@ -9911,13 +9911,13 @@
         <v>46</v>
       </c>
       <c r="AH80" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ80" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK80" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9943,10 +9943,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>10</v>
@@ -9955,10 +9955,10 @@
         <v>8009098909</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>23</v>
@@ -9976,16 +9976,16 @@
         <v>20006</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V81" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="W81" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="W81" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="X81" s="13">
         <v>2224568749</v>
@@ -9994,7 +9994,7 @@
         <v>43</v>
       </c>
       <c r="Z81" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA81" s="5" t="s">
         <v>44</v>
@@ -10003,7 +10003,7 @@
         <v>45</v>
       </c>
       <c r="AC81" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD81" s="13" t="s">
         <v>22</v>
@@ -10018,13 +10018,13 @@
         <v>46</v>
       </c>
       <c r="AH81" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ81" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK81" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10050,13 +10050,13 @@
         <v>6</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>10</v>
@@ -10065,10 +10065,10 @@
         <v>8009098909</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>23</v>
@@ -10086,16 +10086,16 @@
         <v>20006</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V82" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="W82" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="X82" s="13">
         <v>2224568749</v>
@@ -10104,7 +10104,7 @@
         <v>43</v>
       </c>
       <c r="Z82" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA82" s="5" t="s">
         <v>44</v>
@@ -10113,7 +10113,7 @@
         <v>45</v>
       </c>
       <c r="AC82" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD82" s="13" t="s">
         <v>22</v>
@@ -10128,13 +10128,13 @@
         <v>46</v>
       </c>
       <c r="AH82" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ82" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK82" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10165,7 +10165,7 @@
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
       <c r="N83" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O83" s="19"/>
       <c r="P83" s="19"/>
@@ -10177,16 +10177,16 @@
       </c>
       <c r="S83" s="19"/>
       <c r="T83" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V83" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W83" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="W83" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="X83" s="13">
         <v>2224568749</v>
@@ -10194,14 +10194,14 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB83" s="19"/>
       <c r="AC83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD83" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD83" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE83" s="13">
         <v>80011</v>
@@ -10241,7 +10241,7 @@
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O84" s="19"/>
       <c r="P84" s="19"/>
@@ -10253,16 +10253,16 @@
       </c>
       <c r="S84" s="19"/>
       <c r="T84" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V84" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="W84" s="13" t="s">
         <v>302</v>
-      </c>
-      <c r="W84" s="13" t="s">
-        <v>303</v>
       </c>
       <c r="X84" s="13">
         <v>2224568749</v>
@@ -10270,14 +10270,14 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB84" s="19"/>
       <c r="AC84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD84" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD84" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE84" s="13">
         <v>80011</v>
@@ -10317,7 +10317,7 @@
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O85" s="19"/>
       <c r="P85" s="19"/>
@@ -10329,16 +10329,16 @@
       </c>
       <c r="S85" s="19"/>
       <c r="T85" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V85" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W85" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="W85" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="X85" s="13">
         <v>2224568749</v>
@@ -10346,14 +10346,14 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB85" s="19"/>
       <c r="AC85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD85" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD85" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE85" s="13">
         <v>80011</v>
@@ -10393,7 +10393,7 @@
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O86" s="19"/>
       <c r="P86" s="19"/>
@@ -10405,16 +10405,16 @@
       </c>
       <c r="S86" s="19"/>
       <c r="T86" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V86" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="W86" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>307</v>
       </c>
       <c r="X86" s="13">
         <v>2224568749</v>
@@ -10422,14 +10422,14 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB86" s="19"/>
       <c r="AC86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD86" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD86" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE86" s="13">
         <v>80011</v>
@@ -10469,7 +10469,7 @@
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O87" s="19"/>
       <c r="P87" s="19"/>
@@ -10481,16 +10481,16 @@
       </c>
       <c r="S87" s="19"/>
       <c r="T87" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V87" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W87" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="W87" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="X87" s="13">
         <v>2224568749</v>
@@ -10498,14 +10498,14 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB87" s="19"/>
       <c r="AC87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD87" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD87" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE87" s="13">
         <v>80011</v>
@@ -10540,7 +10540,7 @@
         <v>6</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
@@ -10548,7 +10548,7 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O88" s="19"/>
       <c r="P88" s="19"/>
@@ -10560,16 +10560,16 @@
       </c>
       <c r="S88" s="19"/>
       <c r="T88" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V88" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="W88" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="W88" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="X88" s="13">
         <v>2224568749</v>
@@ -10577,14 +10577,14 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB88" s="19"/>
       <c r="AC88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD88" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD88" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE88" s="13">
         <v>80011</v>
@@ -10624,7 +10624,7 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
@@ -10636,16 +10636,16 @@
       </c>
       <c r="S89" s="19"/>
       <c r="T89" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V89" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W89" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="W89" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="X89" s="13">
         <v>2224568749</v>
@@ -10653,14 +10653,14 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB89" s="19"/>
       <c r="AC89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD89" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD89" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE89" s="13">
         <v>80011</v>
@@ -10700,7 +10700,7 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
@@ -10712,16 +10712,16 @@
       </c>
       <c r="S90" s="19"/>
       <c r="T90" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V90" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="W90" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="W90" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="X90" s="13">
         <v>2224568749</v>
@@ -10729,14 +10729,14 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB90" s="19"/>
       <c r="AC90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD90" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD90" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE90" s="13">
         <v>80011</v>
@@ -10776,7 +10776,7 @@
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
@@ -10788,16 +10788,16 @@
       </c>
       <c r="S91" s="19"/>
       <c r="T91" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V91" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W91" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="W91" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="X91" s="13">
         <v>2224568749</v>
@@ -10805,14 +10805,14 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
       <c r="AA91" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB91" s="19"/>
       <c r="AC91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD91" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD91" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE91" s="13">
         <v>80011</v>
@@ -10852,7 +10852,7 @@
       <c r="L92" s="19"/>
       <c r="M92" s="19"/>
       <c r="N92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O92" s="19"/>
       <c r="P92" s="19"/>
@@ -10864,16 +10864,16 @@
       </c>
       <c r="S92" s="19"/>
       <c r="T92" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V92" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="W92" s="13" t="s">
         <v>318</v>
-      </c>
-      <c r="W92" s="13" t="s">
-        <v>319</v>
       </c>
       <c r="X92" s="13">
         <v>2224568749</v>
@@ -10881,14 +10881,14 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB92" s="19"/>
       <c r="AC92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD92" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="AD92" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AE92" s="13">
         <v>80011</v>

--- a/src/test/resources/FHEO-Testdata2.xlsx
+++ b/src/test/resources/FHEO-Testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D01A89-0BDB-4C34-8E8D-4E833667BA4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47E2C4-6689-4156-B906-971D9B4ACE97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="321">
   <si>
     <t>race</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>discDateWithTimestamp</t>
   </si>
 </sst>
 </file>
@@ -1936,13 +1939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T81" sqref="T81:T92"/>
+      <selection pane="bottomRight" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1987,7 +1990,7 @@
     <col min="38" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2102,11 @@
       <c r="AK1" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2182,7 @@
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +2261,7 @@
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
